--- a/Examen.xlsx
+++ b/Examen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLON\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkpad\Desktop\Brandon\Universidad\simulacion de sistemas\Examen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DB6A6E-6B69-4CB7-AFAB-389797951E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86442ED-83F7-4D39-B38D-C53A9B018353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>D</t>
   </si>
@@ -138,6 +147,1592 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-NI"/>
+              <a:t>Gráfico</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-NI" baseline="0"/>
+              <a:t> del Inventario</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-NI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Día</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$11:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E51-4138-8E55-B8D5E1019C4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inventario Inicial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$11:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E51-4138-8E55-B8D5E1019C4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$11:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E51-4138-8E55-B8D5E1019C4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pedidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$11:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7E51-4138-8E55-B8D5E1019C4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Inventario Final</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$11:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7E51-4138-8E55-B8D5E1019C4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2103875935"/>
+        <c:axId val="2103883839"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2103875935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2103883839"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2103883839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-NI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2103875935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-NI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-NI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1520825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12754E3-13F1-4F87-BAE9-166EFEFC6BF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,24 +1998,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N40"/>
+  <dimension ref="B3:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="13" max="13" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M3" t="s">
         <v>1</v>
       </c>
@@ -428,10 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M4" t="s">
         <v>2</v>
       </c>
@@ -439,10 +2028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M5" t="s">
         <v>4</v>
       </c>
@@ -450,10 +2036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M6" t="s">
         <v>6</v>
       </c>
@@ -461,10 +2044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="M7" t="s">
         <v>8</v>
       </c>
@@ -472,7 +2052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -489,28 +2069,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1">
         <f ca="1">RANDBETWEEN(5,10)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1">
         <f ca="1">RANDBETWEEN(0,10)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
         <f ca="1">C11-D11+E11</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -520,60 +2100,60 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" ref="D12:E40" ca="1" si="1">RANDBETWEEN(0,10)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ref="F12:F40" ca="1" si="2">C12-D12+E12</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>5</v>
       </c>
@@ -583,333 +2163,333 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>6</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>7</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>8</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>9</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>10</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>11</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>12</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>13</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>14</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <f t="shared" ca="1" si="1"/>
         <v>10</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>15</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>16</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>17</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>18</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>19</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>20</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>21</v>
       </c>
@@ -919,102 +2499,102 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>22</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <v>23</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <v>24</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
         <v>25</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>26</v>
       </c>
@@ -1024,39 +2604,39 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="1">
         <v>27</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="1">
         <v>28</v>
       </c>
@@ -1066,60 +2646,61 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
         <v>29</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="1">
         <v>30</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>